--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -965,7 +965,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:Z11"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1104,9 +1104,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1129,7 +1131,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1161,9 +1163,11 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1186,7 +1190,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1220,7 +1224,9 @@
       <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1243,7 +1249,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1277,7 +1283,9 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1332,9 +1340,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1357,7 +1367,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1391,7 +1401,9 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1414,7 +1426,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1446,9 +1458,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1471,7 +1485,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA11" si="7">SUM(C8:Z8)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1505,7 +1519,9 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1560,9 +1576,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="37"/>
@@ -1585,7 +1603,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1617,9 +1635,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1642,7 +1662,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -962,10 +962,10 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1109,7 +1109,9 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1131,7 +1133,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1168,9 +1170,13 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>8</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1190,7 +1196,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1227,7 +1233,9 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1249,7 +1257,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1281,12 +1289,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1308,7 +1318,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1345,7 +1355,9 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1404,7 +1416,9 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1426,7 +1440,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1463,7 +1477,9 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1522,7 +1538,9 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1581,7 +1599,9 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="37"/>
       <c r="J10" s="3"/>
@@ -1603,7 +1623,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1640,7 +1660,9 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1662,7 +1684,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -111,12 +111,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +749,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -783,6 +784,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -958,17 +960,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12:I12"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
@@ -995,7 +997,7 @@
     <col min="32" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
@@ -1113,7 +1115,9 @@
         <v>1</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1151,7 +1155,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
@@ -1236,8 +1240,12 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1257,7 +1265,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1275,7 +1283,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1306,9 @@
         <v>0</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1336,7 +1346,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1369,9 @@
         <v>0</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1379,7 +1391,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1397,7 +1409,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1432,9 @@
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>8</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1440,7 +1454,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1458,7 +1472,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>26</v>
       </c>
@@ -1480,8 +1494,12 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1501,7 +1519,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA11" si="7">SUM(C8:Z8)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1519,7 +1537,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1560,9 @@
         <v>0</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1580,7 +1600,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
@@ -1603,7 +1623,9 @@
         <v>1</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="37">
+        <v>8</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1623,7 +1645,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1641,7 +1663,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
@@ -1664,7 +1686,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>8</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1684,7 +1708,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1702,7 +1726,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="44" t="s">
@@ -1749,7 +1773,7 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1779,7 +1803,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1809,7 +1833,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1839,7 +1863,7 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1869,7 +1893,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1899,7 +1923,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1929,7 +1953,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1959,7 +1983,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1989,7 +2013,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2019,7 +2043,7 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2049,7 +2073,7 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2079,7 +2103,7 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2109,7 +2133,7 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2219,24 +2243,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -111,12 +111,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,7 +749,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -784,7 +783,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -960,17 +958,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
@@ -997,7 +995,7 @@
     <col min="32" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
@@ -1114,11 +1112,15 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1137,7 +1139,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1155,7 +1157,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
@@ -1177,11 +1179,15 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1218,7 +1224,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
@@ -1246,7 +1252,9 @@
       <c r="I4" s="3">
         <v>8</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1265,7 +1273,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1283,7 +1291,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
@@ -1305,11 +1313,15 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="37"/>
@@ -1328,7 +1340,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1346,7 +1358,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
@@ -1368,11 +1380,15 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
       <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1391,7 +1407,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1409,7 +1425,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>25</v>
       </c>
@@ -1431,11 +1447,15 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
       <c r="I7" s="3">
         <v>8</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1454,7 +1474,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1472,7 +1492,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1520,9 @@
       <c r="I8" s="3">
         <v>8</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="37"/>
@@ -1519,7 +1541,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA11" si="7">SUM(C8:Z8)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1537,7 +1559,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
@@ -1559,11 +1581,15 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="37"/>
@@ -1600,7 +1626,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
@@ -1622,11 +1648,15 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
       <c r="I10" s="37">
         <v>8</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1645,7 +1675,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1663,7 +1693,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
@@ -1685,11 +1715,15 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
       <c r="I11" s="3">
         <v>8</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1708,7 +1742,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1726,7 +1760,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="44" t="s">
@@ -1773,7 +1807,7 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1803,7 +1837,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1833,7 +1867,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1863,7 +1897,7 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1893,7 +1927,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1923,7 +1957,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1953,7 +1987,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1983,7 +2017,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2013,7 +2047,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2043,7 +2077,7 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2073,7 +2107,7 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2103,7 +2137,7 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2133,7 +2167,7 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2243,24 +2277,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -111,12 +111,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +749,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -783,6 +784,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -958,17 +960,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
@@ -995,7 +997,7 @@
     <col min="32" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
@@ -1116,14 +1118,20 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1139,7 +1147,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1157,7 +1165,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
@@ -1188,9 +1196,15 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1206,7 +1220,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1224,7 +1238,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
@@ -1255,9 +1269,15 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1273,7 +1293,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1291,7 +1311,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
@@ -1317,14 +1337,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="37"/>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1340,7 +1366,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1358,7 +1384,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
@@ -1384,14 +1410,20 @@
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1407,7 +1439,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1425,7 +1457,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1488,15 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>7</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1474,7 +1512,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1492,7 +1530,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>26</v>
       </c>
@@ -1523,9 +1561,15 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="37"/>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1559,7 +1603,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
@@ -1590,9 +1634,15 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="37"/>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1626,7 +1676,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
@@ -1657,9 +1707,15 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1675,7 +1731,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1693,7 +1749,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
@@ -1724,9 +1780,15 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1742,7 +1804,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1760,7 +1822,7 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="44" t="s">
@@ -1807,7 +1869,7 @@
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1837,7 +1899,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1867,7 +1929,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1897,7 +1959,7 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1927,7 +1989,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1957,7 +2019,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1987,7 +2049,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2017,7 +2079,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2047,7 +2109,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2077,7 +2139,7 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2107,7 +2169,7 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2137,7 +2199,7 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2167,7 +2229,7 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2277,24 +2339,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -964,10 +964,10 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1130,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="3"/>
       <c r="S2" s="21"/>
@@ -1147,7 +1149,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1207,9 +1209,13 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="38"/>
+      <c r="R3" s="38">
+        <v>2</v>
+      </c>
       <c r="S3" s="21"/>
       <c r="T3" s="3"/>
       <c r="U3" s="38"/>
@@ -1220,7 +1226,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1280,7 +1286,9 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="38"/>
       <c r="S4" s="21"/>
@@ -1293,7 +1301,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1349,11 +1357,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="38"/>
       <c r="S5" s="21"/>
@@ -1366,7 +1376,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1422,11 +1432,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="38"/>
       <c r="S6" s="21"/>
@@ -1439,7 +1451,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1499,7 +1511,9 @@
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="21"/>
@@ -1512,7 +1526,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1568,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1585,7 +1599,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA11" si="7">SUM(C8:Z8)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1718,7 +1732,9 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="38"/>
       <c r="S10" s="21"/>
@@ -1731,7 +1747,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1791,7 +1807,9 @@
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="39"/>
       <c r="S11" s="21"/>
@@ -1804,7 +1822,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -964,10 +964,10 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,9 @@
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="21"/>
+      <c r="S2" s="21">
+        <v>1</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1148,14 +1150,14 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
-        <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>21</v>
+        <f>SUM(C2:Z2)</f>
+        <v>22</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
       </c>
       <c r="AC2" s="28" t="str">
-        <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC2:AC3" si="0">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD2" s="28" t="str">
@@ -1216,7 +1218,9 @@
       <c r="R3" s="38">
         <v>2</v>
       </c>
-      <c r="S3" s="21"/>
+      <c r="S3" s="21">
+        <v>1</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="38"/>
       <c r="V3" s="21"/>
@@ -1225,14 +1229,14 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>SUM(C3:Z3)</f>
+        <v>25</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
       </c>
       <c r="AC3" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
       <c r="AD3" s="19" t="str">
@@ -1291,7 +1295,9 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="21"/>
+      <c r="S4" s="21">
+        <v>1</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="38"/>
       <c r="V4" s="21"/>
@@ -1300,22 +1306,22 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>SUM(C4:Z4)</f>
+        <v>30</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
       </c>
       <c r="AC4" s="4" t="str">
-        <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC4:AC5" si="1">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD4" s="19" t="str">
-        <f t="shared" ref="AD4:AD11" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD4:AD11" si="2">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE4" s="4" t="str">
-        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1366,7 +1372,9 @@
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="38"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="21">
+        <v>1</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="37"/>
       <c r="V5" s="3"/>
@@ -1375,18 +1383,18 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>SUM(C5:Z5)</f>
+        <v>22</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD5" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD5" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE5" s="19" t="str">
@@ -1450,22 +1458,22 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:Z6)</f>
         <v>22</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
       </c>
       <c r="AC6" s="4" t="str">
-        <f t="shared" ref="AC6:AC11" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC6:AC11" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD6" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AE6" s="19" t="str">
-        <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE6:AE7" si="5" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1516,7 +1524,9 @@
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
-      <c r="S7" s="21"/>
+      <c r="S7" s="21">
+        <v>1</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="38"/>
       <c r="V7" s="21"/>
@@ -1525,22 +1535,22 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>SUM(C7:Z7)</f>
+        <v>29</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
       </c>
       <c r="AC7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE7" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD7" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE7" s="19" t="str">
-        <f t="shared" si="6"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1589,7 +1599,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="38"/>
-      <c r="S8" s="21"/>
+      <c r="S8" s="21">
+        <v>1</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="36"/>
       <c r="V8" s="3"/>
@@ -1598,18 +1610,18 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
-        <f t="shared" ref="AA8:AA11" si="7">SUM(C8:Z8)</f>
-        <v>23</v>
+        <f>SUM(C8:Z8)</f>
+        <v>24</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Не удовл</v>
       </c>
       <c r="AD8" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AE8" s="19" t="str">
@@ -1671,18 +1683,18 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
-        <f t="shared" si="7"/>
+        <f>SUM(C9:Z9)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
       </c>
       <c r="AC9" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Не удовл</v>
       </c>
       <c r="AD9" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AE9" s="4" t="str">
@@ -1746,22 +1758,22 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
-        <f t="shared" si="7"/>
+        <f>SUM(C10:Z10)</f>
         <v>26</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Не удовл</v>
       </c>
       <c r="AD10" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AE10" s="4" t="str">
-        <f t="shared" ref="AE10" si="8" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE10" si="6" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1812,7 +1824,9 @@
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="39"/>
-      <c r="S11" s="21"/>
+      <c r="S11" s="21">
+        <v>1</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="38"/>
       <c r="V11" s="21"/>
@@ -1821,18 +1835,18 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
-        <f t="shared" si="7"/>
-        <v>25</v>
+        <f>SUM(C11:Z11)</f>
+        <v>26</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
       </c>
       <c r="AC11" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Не удовл</v>
       </c>
       <c r="AD11" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AE11" s="19" t="str">

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +538,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,7 +988,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1138,7 +1159,9 @@
         <v>1</v>
       </c>
       <c r="Q2" s="24"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>10</v>
+      </c>
       <c r="S2" s="21">
         <v>1</v>
       </c>
@@ -1150,14 +1173,14 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
-        <f>SUM(C2:Z2)</f>
-        <v>22</v>
+        <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
+        <v>34</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
       </c>
       <c r="AC2" s="28" t="str">
-        <f t="shared" ref="AC2:AC3" si="0">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD2" s="28" t="str">
@@ -1216,7 +1239,7 @@
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S3" s="21">
         <v>1</v>
@@ -1229,14 +1252,14 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
-        <f>SUM(C3:Z3)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
       </c>
       <c r="AC3" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
       <c r="AD3" s="19" t="str">
@@ -1294,7 +1317,9 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="38"/>
+      <c r="R4" s="38">
+        <v>11</v>
+      </c>
       <c r="S4" s="21">
         <v>1</v>
       </c>
@@ -1306,22 +1331,22 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
-        <f>SUM(C4:Z4)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
       </c>
       <c r="AC4" s="4" t="str">
-        <f t="shared" ref="AC4:AC5" si="1">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD4" s="19" t="str">
-        <f t="shared" ref="AD4:AD11" si="2">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
+        <f t="shared" ref="AD4:AD11" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
       <c r="AE4" s="4" t="str">
-        <f t="shared" ref="AE4" si="3" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1371,7 +1396,9 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="38"/>
+      <c r="R5" s="38">
+        <v>10</v>
+      </c>
       <c r="S5" s="21">
         <v>1</v>
       </c>
@@ -1383,18 +1410,18 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
-        <f>SUM(C5:Z5)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
       <c r="AD5" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE5" s="19" t="str">
@@ -1448,7 +1475,9 @@
         <v>1</v>
       </c>
       <c r="Q6" s="24"/>
-      <c r="R6" s="38"/>
+      <c r="R6" s="38">
+        <v>8</v>
+      </c>
       <c r="S6" s="21"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1458,22 +1487,22 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
-        <f>SUM(C6:Z6)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
       </c>
       <c r="AC6" s="4" t="str">
-        <f t="shared" ref="AC6:AC11" si="4">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
+        <f t="shared" ref="AC6:AC11" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
       <c r="AD6" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE6" s="19" t="str">
-        <f t="shared" ref="AE6:AE7" si="5" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1523,7 +1552,9 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="R7" s="38">
+        <v>10</v>
+      </c>
       <c r="S7" s="21">
         <v>1</v>
       </c>
@@ -1535,22 +1566,22 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
-        <f>SUM(C7:Z7)</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
       </c>
       <c r="AC7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
       <c r="AD7" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE7" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1598,7 +1629,9 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="38"/>
+      <c r="R8" s="38">
+        <v>10</v>
+      </c>
       <c r="S8" s="21">
         <v>1</v>
       </c>
@@ -1610,18 +1643,18 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
-        <f>SUM(C8:Z8)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
       <c r="AD8" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE8" s="19" t="str">
@@ -1633,71 +1666,73 @@
       <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="42">
         <v>8</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="37">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="6">
-        <f>SUM(C9:Z9)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
+      <c r="C9" s="43">
+        <v>0</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0</v>
+      </c>
+      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="M9" s="44">
+        <v>0</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="42">
+        <v>0</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="46">
         <v>85</v>
       </c>
-      <c r="AC9" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC9" s="47" t="str">
+        <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD9" s="19" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD9" s="48" t="str">
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE9" s="4" t="str">
+      <c r="AE9" s="47" t="str">
         <f xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
@@ -1748,7 +1783,9 @@
         <v>1</v>
       </c>
       <c r="Q10" s="24"/>
-      <c r="R10" s="38"/>
+      <c r="R10" s="38">
+        <v>10</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1758,22 +1795,22 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
-        <f>SUM(C10:Z10)</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
       <c r="AD10" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE10" s="4" t="str">
-        <f t="shared" ref="AE10" si="6" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
+        <f t="shared" ref="AE10" si="7" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
@@ -1815,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1823,7 +1860,9 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="39"/>
+      <c r="R11" s="39">
+        <v>6</v>
+      </c>
       <c r="S11" s="21">
         <v>1</v>
       </c>
@@ -1835,18 +1874,18 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
-        <f>SUM(C11:Z11)</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
       </c>
       <c r="AC11" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
       <c r="AD11" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
       <c r="AE11" s="19" t="str">
@@ -1857,44 +1896,44 @@
     <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="44" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="49" t="s">
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="49" t="s">
+      <c r="T12" s="57"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="42" t="s">
+      <c r="W12" s="57"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Z12" s="43"/>
+      <c r="Z12" s="50"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="7"/>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -985,10 +985,10 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="U13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,21 +1171,23 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="24"/>
+      <c r="Z2" s="24">
+        <v>24</v>
+      </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
       </c>
       <c r="AC2" s="28" t="str">
         <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD2" s="28" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1250,21 +1252,23 @@
       <c r="W3" s="3"/>
       <c r="X3" s="38"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="38"/>
+      <c r="Z3" s="38">
+        <v>24</v>
+      </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
       </c>
       <c r="AC3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD3" s="19" t="str">
         <f>IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE3" s="4" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
@@ -1329,21 +1333,23 @@
       <c r="W4" s="3"/>
       <c r="X4" s="38"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="38"/>
+      <c r="Z4" s="38">
+        <v>24</v>
+      </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD4" s="19" t="str">
         <f t="shared" ref="AD4:AD11" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>D</v>
       </c>
       <c r="AE4" s="4" t="str">
         <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
@@ -1408,21 +1414,23 @@
       <c r="W5" s="3"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="24">
+        <v>24</v>
+      </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -1476,7 +1484,7 @@
       </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S6" s="21"/>
       <c r="T6" s="3"/>
@@ -1485,21 +1493,23 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="24">
+        <v>24</v>
+      </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f t="shared" ref="AC6:AC11" si="5">IF(AA6&gt;=87,"отл",IF(AA6&gt;=73,"хорошо",IF(AA6&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE6" s="19" t="str">
         <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
@@ -1564,21 +1574,23 @@
       <c r="W7" s="3"/>
       <c r="X7" s="38"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="38"/>
+      <c r="Z7" s="38">
+        <v>24</v>
+      </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD7" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>D</v>
       </c>
       <c r="AE7" s="19" t="str">
         <f t="shared" si="6"/>
@@ -1641,21 +1653,23 @@
       <c r="W8" s="3"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="24">
+        <v>24</v>
+      </c>
       <c r="AA8" s="6">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -1716,7 +1730,9 @@
       <c r="W9" s="44"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
-      <c r="Z9" s="45"/>
+      <c r="Z9" s="45">
+        <v>0</v>
+      </c>
       <c r="AA9" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1793,21 +1809,23 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="24">
+        <v>24</v>
+      </c>
       <c r="AA10" s="6">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>D-</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="7" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
@@ -1861,7 +1879,7 @@
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S11" s="21">
         <v>1</v>
@@ -1872,21 +1890,23 @@
       <c r="W11" s="3"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="38"/>
+      <c r="Z11" s="38">
+        <v>24</v>
+      </c>
       <c r="AA11" s="35">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
       </c>
       <c r="AC11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AD11" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Не удовл</v>
+        <v>D</v>
       </c>
       <c r="AE11" s="19" t="str">
         <f xml:space="preserve"> IF(AA11&gt;=AB11,"Зачет","Не зачет")</f>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,9 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,7 +594,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -985,10 +996,10 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="U13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12:Z12"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1125,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22">
@@ -1166,17 +1177,21 @@
         <v>1</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3">
+        <v>3</v>
+      </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3">
+        <v>2</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="24">
         <v>24</v>
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1187,7 +1202,7 @@
       </c>
       <c r="AD2" s="28" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1195,7 +1210,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="22">
@@ -1240,24 +1255,28 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="38">
+      <c r="R3" s="37">
         <v>10</v>
       </c>
       <c r="S3" s="21">
         <v>1</v>
       </c>
       <c r="T3" s="3"/>
-      <c r="U3" s="38"/>
+      <c r="U3" s="37">
+        <v>8</v>
+      </c>
       <c r="V3" s="21"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="38"/>
+      <c r="X3" s="37">
+        <v>7</v>
+      </c>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="38">
+      <c r="Z3" s="37">
         <v>24</v>
       </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1268,7 +1287,7 @@
       </c>
       <c r="AD3" s="19" t="str">
         <f>IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>E</v>
+        <v>C-</v>
       </c>
       <c r="AE3" s="4" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
@@ -1276,7 +1295,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="22">
@@ -1313,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1321,35 +1340,37 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="38">
+      <c r="R4" s="37">
         <v>11</v>
       </c>
       <c r="S4" s="21">
         <v>1</v>
       </c>
       <c r="T4" s="3"/>
-      <c r="U4" s="38"/>
+      <c r="U4" s="37">
+        <v>10</v>
+      </c>
       <c r="V4" s="21"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="38"/>
+      <c r="X4" s="37"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="38">
+      <c r="Z4" s="37">
         <v>24</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD4" s="19" t="str">
         <f t="shared" ref="AD4:AD11" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>D</v>
+        <v>C+</v>
       </c>
       <c r="AE4" s="4" t="str">
         <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
@@ -1357,7 +1378,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="22">
@@ -1393,8 +1414,8 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="37">
-        <v>5</v>
+      <c r="M5" s="36">
+        <v>9</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1402,35 +1423,39 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="38">
+      <c r="R5" s="37">
         <v>10</v>
       </c>
       <c r="S5" s="21">
         <v>1</v>
       </c>
       <c r="T5" s="3"/>
-      <c r="U5" s="37"/>
+      <c r="U5" s="36">
+        <v>12</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="37"/>
+      <c r="X5" s="36">
+        <v>11</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="24">
         <v>24</v>
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -1438,7 +1463,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="22">
@@ -1483,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="24"/>
-      <c r="R6" s="38">
+      <c r="R6" s="37">
         <v>10</v>
       </c>
       <c r="S6" s="21"/>
@@ -1517,7 +1542,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="22">
@@ -1562,35 +1587,39 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="38">
+      <c r="R7" s="37">
         <v>10</v>
       </c>
       <c r="S7" s="21">
         <v>1</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="38"/>
+      <c r="U7" s="37">
+        <v>10</v>
+      </c>
       <c r="V7" s="21"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="38"/>
+      <c r="X7" s="37">
+        <v>9</v>
+      </c>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="38">
+      <c r="Z7" s="37">
         <v>24</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD7" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>B-</v>
       </c>
       <c r="AE7" s="19" t="str">
         <f t="shared" si="6"/>
@@ -1598,7 +1627,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="22">
@@ -1634,42 +1663,46 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>6</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="38">
+      <c r="R8" s="37">
         <v>10</v>
       </c>
       <c r="S8" s="21">
         <v>1</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="36"/>
+      <c r="U8" s="37">
+        <v>10</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="36"/>
+      <c r="X8" s="37">
+        <v>9</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="24">
         <v>24</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>E</v>
+        <v>C+</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -1677,84 +1710,84 @@
       </c>
     </row>
     <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <v>8</v>
       </c>
-      <c r="C9" s="43">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44">
-        <v>0</v>
-      </c>
-      <c r="E9" s="44">
-        <v>0</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="44">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44">
-        <v>0</v>
-      </c>
-      <c r="J9" s="44">
-        <v>0</v>
-      </c>
-      <c r="K9" s="44">
-        <v>0</v>
-      </c>
-      <c r="L9" s="44">
-        <v>0</v>
-      </c>
-      <c r="M9" s="44">
-        <v>0</v>
-      </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="42">
-        <v>0</v>
-      </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="46">
+      <c r="C9" s="42">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="41">
+        <v>0</v>
+      </c>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="45">
         <v>85</v>
       </c>
-      <c r="AC9" s="47" t="str">
+      <c r="AC9" s="46" t="str">
         <f t="shared" si="5"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD9" s="48" t="str">
+      <c r="AD9" s="47" t="str">
         <f t="shared" si="3"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE9" s="47" t="str">
+      <c r="AE9" s="46" t="str">
         <f xml:space="preserve"> IF(AA9&gt;=AB9,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="22">
@@ -1778,7 +1811,7 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>8</v>
       </c>
       <c r="J10" s="3">
@@ -1799,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="24"/>
-      <c r="R10" s="38">
+      <c r="R10" s="37">
         <v>10</v>
       </c>
       <c r="S10" s="21"/>
@@ -1833,7 +1866,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="22">
@@ -1878,24 +1911,28 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="39">
+      <c r="R11" s="38">
         <v>10</v>
       </c>
       <c r="S11" s="21">
         <v>1</v>
       </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="38"/>
+      <c r="U11" s="37">
+        <v>5</v>
+      </c>
       <c r="V11" s="21"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="38"/>
+      <c r="X11" s="37">
+        <v>4</v>
+      </c>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="38">
+      <c r="Z11" s="37">
         <v>24</v>
       </c>
       <c r="AA11" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1906,7 +1943,7 @@
       </c>
       <c r="AD11" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C-</v>
       </c>
       <c r="AE11" s="19" t="str">
         <f xml:space="preserve"> IF(AA11&gt;=AB11,"Зачет","Не зачет")</f>
@@ -1916,44 +1953,44 @@
     <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="51" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56" t="s">
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="56" t="s">
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="57"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="56" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="49" t="s">
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Z12" s="50"/>
+      <c r="Z12" s="49"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="7"/>
@@ -2365,61 +2402,71 @@
     <mergeCell ref="J12:M12"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:J11 R7:R10 S2:Z2 C2:Q4 K7:Y7 K5:Z6 R3:Y4">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:Z10 K8:Q11 S11:T11 Y11">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+  <conditionalFormatting sqref="S9:Z10 K8:Q11 S11:T11 Y11 S8:T8 V8:W8 Y8:Z8">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="X11">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
+  <conditionalFormatting sqref="V11:W11">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X11">
+  <conditionalFormatting sqref="Z11">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:W11">
+  <conditionalFormatting sqref="Z7">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
+  <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
+  <conditionalFormatting sqref="Z3">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
+  <conditionalFormatting sqref="A2:A11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
+  <conditionalFormatting sqref="U8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A11">
+  <conditionalFormatting sqref="X8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -996,10 +996,10 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="U13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,19 +1169,27 @@
       <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2" s="24"/>
+      <c r="Q2" s="24">
+        <v>1</v>
+      </c>
       <c r="R2" s="3">
         <v>10</v>
       </c>
       <c r="S2" s="21">
         <v>1</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
       <c r="U2" s="3">
         <v>3</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
       <c r="X2" s="3">
         <v>2</v>
       </c>
@@ -1191,7 +1199,7 @@
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1202,7 +1210,7 @@
       </c>
       <c r="AD2" s="28" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>D</v>
+        <v>D+</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1232,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>8</v>
@@ -1254,19 +1262,27 @@
       <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
       <c r="R3" s="37">
         <v>10</v>
       </c>
       <c r="S3" s="21">
         <v>1</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
       <c r="U3" s="37">
         <v>8</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="21">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
       <c r="X3" s="37">
         <v>7</v>
       </c>
@@ -1276,18 +1292,18 @@
       </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
       </c>
       <c r="AC3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD3" s="19" t="str">
         <f>IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>C-</v>
+        <v>C+</v>
       </c>
       <c r="AE3" s="4" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
@@ -1339,19 +1355,27 @@
       <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
       <c r="R4" s="37">
         <v>11</v>
       </c>
       <c r="S4" s="21">
         <v>1</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
       <c r="U4" s="37">
         <v>10</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="3"/>
+      <c r="V4" s="21">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
       <c r="X4" s="37"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="37">
@@ -1359,7 +1383,7 @@
       </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1370,7 +1394,7 @@
       </c>
       <c r="AD4" s="19" t="str">
         <f t="shared" ref="AD4:AD11" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="AE4" s="4" t="str">
         <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
@@ -1394,13 +1418,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>7</v>
@@ -1409,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <v>1</v>
@@ -1422,19 +1446,27 @@
       <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
       <c r="R5" s="37">
         <v>10</v>
       </c>
       <c r="S5" s="21">
         <v>1</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
       <c r="U5" s="36">
         <v>12</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
       <c r="X5" s="36">
         <v>11</v>
       </c>
@@ -1444,22 +1476,22 @@
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>А-</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1482,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1497,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>6</v>
@@ -1507,7 +1539,9 @@
       <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="24">
+        <v>1</v>
+      </c>
       <c r="R6" s="37">
         <v>10</v>
       </c>
@@ -1515,7 +1549,9 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="24">
@@ -1523,7 +1559,7 @@
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1534,7 +1570,7 @@
       </c>
       <c r="AD6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>E</v>
+        <v>D-</v>
       </c>
       <c r="AE6" s="19" t="str">
         <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
@@ -1586,19 +1622,27 @@
       <c r="P7" s="3">
         <v>1</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
       <c r="R7" s="37">
         <v>10</v>
       </c>
       <c r="S7" s="21">
         <v>1</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
       <c r="U7" s="37">
         <v>10</v>
       </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="3"/>
+      <c r="V7" s="21">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
       <c r="X7" s="37">
         <v>9</v>
       </c>
@@ -1608,7 +1652,7 @@
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1619,11 +1663,11 @@
       </c>
       <c r="AD7" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B-</v>
+        <v>B</v>
       </c>
       <c r="AE7" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1646,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1676,12 +1720,18 @@
       <c r="S8" s="21">
         <v>1</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
       <c r="U8" s="37">
         <v>10</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
       <c r="X8" s="37">
         <v>9</v>
       </c>
@@ -1691,7 +1741,7 @@
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1702,7 +1752,7 @@
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -1760,7 +1810,9 @@
       <c r="T9" s="43"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
+      <c r="W9" s="43">
+        <v>0</v>
+      </c>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
       <c r="Z9" s="44">
@@ -1831,7 +1883,9 @@
       <c r="P10" s="3">
         <v>1</v>
       </c>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="24">
+        <v>1</v>
+      </c>
       <c r="R10" s="37">
         <v>10</v>
       </c>
@@ -1839,7 +1893,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="24">
@@ -1847,7 +1903,7 @@
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1897,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -1910,19 +1966,27 @@
       <c r="P11" s="3">
         <v>1</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
       <c r="R11" s="38">
         <v>10</v>
       </c>
       <c r="S11" s="21">
         <v>1</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
       <c r="U11" s="37">
         <v>5</v>
       </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="3"/>
+      <c r="V11" s="21">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
       <c r="X11" s="37">
         <v>4</v>
       </c>
@@ -1932,18 +1996,18 @@
       </c>
       <c r="AA11" s="35">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
       </c>
       <c r="AC11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD11" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C-</v>
+        <v>C+</v>
       </c>
       <c r="AE11" s="19" t="str">
         <f xml:space="preserve"> IF(AA11&gt;=AB11,"Зачет","Не зачет")</f>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -594,7 +594,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -999,7 +1013,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="U13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,8 +1178,12 @@
       <c r="M2" s="3">
         <v>4</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
       <c r="P2" s="3">
         <v>1</v>
       </c>
@@ -1199,7 +1217,7 @@
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1257,8 +1275,12 @@
       <c r="M3" s="3">
         <v>5</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
       <c r="P3" s="3">
         <v>1</v>
       </c>
@@ -1292,7 +1314,7 @@
       </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1350,8 +1372,12 @@
       <c r="M4" s="3">
         <v>9</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
       <c r="P4" s="3">
         <v>1</v>
       </c>
@@ -1376,29 +1402,31 @@
       <c r="W4" s="3">
         <v>1</v>
       </c>
-      <c r="X4" s="37"/>
+      <c r="X4" s="37">
+        <v>11</v>
+      </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="37">
         <v>24</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f t="shared" ref="AC4:AC5" si="2">IF(AA4&gt;=87,"отл",IF(AA4&gt;=73,"хорошо",IF(AA4&gt;=50,"удовл","Не удовл")))</f>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD4" s="19" t="str">
         <f t="shared" ref="AD4:AD11" si="3">IF(AA4&gt;=98,"А+",IF(AA4&gt;=93,"А",IF(AA4&gt;=90,"А-",IF(AA4&gt;=87,"B+",IF(AA4&gt;=83,"B",IF(AA4&gt;=80,"B-",IF(AA4&gt;=77,"C+",IF(AA4&gt;=73,"C",IF(AA4&gt;=70,"C-",IF(AA4&gt;=67,"D+",IF(AA4&gt;=63,"D",IF(AA4&gt;=60,"D-",IF(AA4&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>B-</v>
+        <v>А</v>
       </c>
       <c r="AE4" s="4" t="str">
         <f t="shared" ref="AE4" si="4" xml:space="preserve"> IF(AA4&gt;=AB4,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1441,8 +1469,12 @@
       <c r="M5" s="36">
         <v>9</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
       <c r="P5" s="3">
         <v>1</v>
       </c>
@@ -1476,7 +1508,7 @@
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1487,7 +1519,7 @@
       </c>
       <c r="AD5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>А-</v>
+        <v>А</v>
       </c>
       <c r="AE5" s="19" t="str">
         <f xml:space="preserve"> IF(AA5&gt;=AB5,"Зачет","Не зачет")</f>
@@ -1534,8 +1566,12 @@
       <c r="M6" s="3">
         <v>6</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
       <c r="P6" s="3">
         <v>1</v>
       </c>
@@ -1559,7 +1595,7 @@
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1617,8 +1653,12 @@
       <c r="M7" s="3">
         <v>7</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
       <c r="P7" s="3">
         <v>1</v>
       </c>
@@ -1652,18 +1692,18 @@
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD7" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="AE7" s="19" t="str">
         <f t="shared" si="6"/>
@@ -1710,10 +1750,18 @@
       <c r="M8" s="36">
         <v>6</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="24"/>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1</v>
+      </c>
       <c r="R8" s="37">
         <v>10</v>
       </c>
@@ -1724,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V8" s="3">
         <v>1</v>
@@ -1733,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="X8" s="37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="24">
@@ -1741,22 +1789,22 @@
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B-</v>
+        <v>B+</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1878,8 +1926,12 @@
       <c r="M10" s="3">
         <v>7</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
@@ -1891,34 +1943,40 @@
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="U10" s="3">
+        <v>12</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
       <c r="W10" s="3">
         <v>1</v>
       </c>
-      <c r="X10" s="3"/>
+      <c r="X10" s="3">
+        <v>9</v>
+      </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="24">
         <v>24</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D-</v>
+        <v>B</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="7" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1961,8 +2019,12 @@
       <c r="M11" s="3">
         <v>8</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
       <c r="P11" s="3">
         <v>1</v>
       </c>
@@ -1996,7 +2058,7 @@
       </c>
       <c r="AA11" s="35">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -2465,72 +2527,82 @@
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="J12:M12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:J11 R7:R10 S2:Z2 C2:Q4 K7:Y7 K5:Z6 R3:Y4">
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+  <conditionalFormatting sqref="C5:J11 R7:R10 S2:Z2 C2:M4 K5:M7 R3:Y4 P5:Z6 P7:Y7 P2:Q4">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:Z10 K8:Q11 S11:T11 Y11 S8:T8 V8:W8 Y8:Z8">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+  <conditionalFormatting sqref="S9:Z10 K8:M11 S11:T11 Y11 S8:T8 V8:W8 Y8:Z8 P8:Q11">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="X11">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
+  <conditionalFormatting sqref="V11:W11">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X11">
+  <conditionalFormatting sqref="Z11">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:W11">
+  <conditionalFormatting sqref="Z7">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
+  <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
+  <conditionalFormatting sqref="Z3">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
+  <conditionalFormatting sqref="A2:A11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
+  <conditionalFormatting sqref="U8">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A11">
+  <conditionalFormatting sqref="X8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8">
+  <conditionalFormatting sqref="N2:O7">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8">
+  <conditionalFormatting sqref="N8:O11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="U13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="2" sqref="A3:XFD3 A6:XFD6 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="3">
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -1211,24 +1211,26 @@
       <c r="X2" s="3">
         <v>2</v>
       </c>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
       <c r="Z2" s="24">
         <v>24</v>
       </c>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
       </c>
       <c r="AC2" s="28" t="str">
         <f t="shared" ref="AC2:AC3" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AD2" s="28" t="str">
         <f>IF(AA2&gt;=98,"А+",IF(AA2&gt;=93,"А",IF(AA2&gt;=90,"А-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>D+</v>
+        <v>C</v>
       </c>
       <c r="AE2" s="28" t="str">
         <f xml:space="preserve"> IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
@@ -1267,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
@@ -1308,13 +1310,15 @@
       <c r="X3" s="37">
         <v>7</v>
       </c>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
       <c r="Z3" s="37">
         <v>24</v>
       </c>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1325,7 +1329,7 @@
       </c>
       <c r="AD3" s="19" t="str">
         <f>IF(AA3&gt;=98,"А+",IF(AA3&gt;=93,"А",IF(AA3&gt;=90,"А-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="AE3" s="4" t="str">
         <f xml:space="preserve"> IF(AA3&gt;=AB3,"Зачет","Не зачет")</f>
@@ -1405,13 +1409,15 @@
       <c r="X4" s="37">
         <v>11</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
       <c r="Z4" s="37">
         <v>24</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1502,13 +1508,15 @@
       <c r="X5" s="36">
         <v>11</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
       <c r="Z5" s="24">
         <v>24</v>
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1558,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
@@ -1589,13 +1597,15 @@
         <v>1</v>
       </c>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
       <c r="Z6" s="24">
         <v>24</v>
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1606,7 +1616,7 @@
       </c>
       <c r="AD6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>D-</v>
+        <v>D</v>
       </c>
       <c r="AE6" s="19" t="str">
         <f t="shared" ref="AE6:AE7" si="6" xml:space="preserve"> IF(AA6&gt;=AB6,"Зачет","Не зачет")</f>
@@ -1645,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1686,13 +1696,15 @@
       <c r="X7" s="37">
         <v>9</v>
       </c>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
       <c r="Z7" s="37">
         <v>24</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1703,7 +1715,7 @@
       </c>
       <c r="AD7" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B+</v>
+        <v>А-</v>
       </c>
       <c r="AE7" s="19" t="str">
         <f t="shared" si="6"/>
@@ -1742,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1783,13 +1795,15 @@
       <c r="X8" s="37">
         <v>11</v>
       </c>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
       <c r="Z8" s="24">
         <v>24</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1800,7 +1814,7 @@
       </c>
       <c r="AD8" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B+</v>
+        <v>А-</v>
       </c>
       <c r="AE8" s="19" t="str">
         <f xml:space="preserve"> IF(AA8&gt;=AB8,"Зачет","Не зачет")</f>
@@ -1862,7 +1876,9 @@
         <v>0</v>
       </c>
       <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
+      <c r="Y9" s="43">
+        <v>0</v>
+      </c>
       <c r="Z9" s="44">
         <v>0</v>
       </c>
@@ -1918,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
@@ -1955,24 +1971,26 @@
       <c r="X10" s="3">
         <v>9</v>
       </c>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
       <c r="Z10" s="24">
         <v>24</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD10" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="AE10" s="4" t="str">
         <f t="shared" ref="AE10" si="7" xml:space="preserve"> IF(AA10&gt;=AB10,"Зачет","Не зачет")</f>
@@ -2041,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="37">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="V11" s="21">
         <v>1</v>
@@ -2050,30 +2068,32 @@
         <v>1</v>
       </c>
       <c r="X11" s="37">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
       <c r="Z11" s="37">
         <v>24</v>
       </c>
       <c r="AA11" s="35">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
       </c>
       <c r="AC11" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>хорошо</v>
+        <v>отл</v>
       </c>
       <c r="AD11" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>C+</v>
+        <v>А-</v>
       </c>
       <c r="AE11" s="19" t="str">
         <f xml:space="preserve"> IF(AA11&gt;=AB11,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
